--- a/performance_test/time.xlsx
+++ b/performance_test/time.xlsx
@@ -752,7 +752,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/performance_test/time.xlsx
+++ b/performance_test/time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="2r 8w" sheetId="1" r:id="rId1"/>
@@ -83,6 +83,6762 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2:8 Read:Write</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8r 2w'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random replacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8r 2w'!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2r 8w'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26871699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7476430000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.860503000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.381169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.142980000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.736578999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.991999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8r 2w'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Recently Used</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2r 8w'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26567299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.441000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.452999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.642000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.545499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8r 2w'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Cache</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2r 8w'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.26669300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7103599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.196000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.841999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.716000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="727725456"/>
+        <c:axId val="727725064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="727725456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t># Request</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727725064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727725064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Delay(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727725456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2:8 Read:Write</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2r 8w'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('2r 8w'!$A$1,'2r 8w'!$D$1,'2r 8w'!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Random replacement</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Least Recently Used</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Cache</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('2r 8w'!$A$16,'2r 8w'!$D$16,'2r 8w'!$G$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="729024832"/>
+        <c:axId val="729023656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="729024832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Policy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729023656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="729023656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>#Request/10s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729024832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5:5 Read:Write</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5r 5w'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random replacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8r 2w'!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5r 5w'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.27100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.2378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.427000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.944000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5r 5w'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Recently Used</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'8r 2w'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26525900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.886000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5r 5w'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Cache</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5r 5w'!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26567000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.582899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.267700000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.76499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="621112696"/>
+        <c:axId val="161135528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="621112696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t># Request</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="161135528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="161135528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Delay(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="621112696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>5:5 Read:Write</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5r 5w'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('2r 8w'!$A$1,'2r 8w'!$D$1,'2r 8w'!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Random replacement</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Least Recently Used</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Cache</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('5r 5w'!$A$16,'5r 5w'!$D$16,'5r 5w'!$G$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="730746288"/>
+        <c:axId val="730743936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="730746288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Policy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730743936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="730743936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>#Request/10s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730746288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>8:2 Read:Write</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8r 2w'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random replacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'8r 2w'!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'8r 2w'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.268675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.592099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.736999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.835999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.673000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8r 2w'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Least Recently Used</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'8r 2w'!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26525900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.886000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8r 2w'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Cache</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'8r 2w'!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.26785999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.793999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>190.13800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="717533696"/>
+        <c:axId val="717534480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="717533696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t># Request</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717534480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="717534480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Delay(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717533696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>8:2 Read:Write</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2r 8w'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('2r 8w'!$A$1,'2r 8w'!$D$1,'2r 8w'!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Random replacement</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Least Recently Used</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Cache</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('8r 2w'!$A$16,'8r 2w'!$D$16,'8r 2w'!$G$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="814911960"/>
+        <c:axId val="814915096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="814911960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Policy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="814915096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="814915096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>#Request/10s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="814911960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,10 +7128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,18 +7311,33 @@
         <v>56.716000000000001</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>ROUND((A9/B9)*10,2)</f>
+        <v>11.54</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="B16:G16" si="0">ROUND((D9/E9)*10,2)</f>
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>10.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,17 +7513,32 @@
         <v>128.76499999999999</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>ROUND((A9/B9)*10,2)</f>
+        <v>7.32</v>
+      </c>
+      <c r="D16">
+        <f>ROUND((D9/E9)*10,2)</f>
+        <v>7.28</v>
+      </c>
+      <c r="G16">
+        <f>ROUND((G9/H9)*10,2)</f>
+        <v>4.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +7714,22 @@
         <v>190.13800000000001</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>ROUND((A9/B9)*10,2)</f>
+        <v>6.21</v>
+      </c>
+      <c r="D16">
+        <f>ROUND((D9/E9)*10,2)</f>
+        <v>7.88</v>
+      </c>
+      <c r="G16">
+        <f>ROUND((G9/H9)*10,2)</f>
+        <v>3.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>